--- a/Test Data/TC_65368_Verify_Voltage_Drop_Error_and_Warning_Indication_FC.xlsx
+++ b/Test Data/TC_65368_Verify_Voltage_Drop_Error_and_Warning_Indication_FC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC49541-80FD-4E65-8FF1-5ABDDED41BDD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009D8446-F08B-4996-A3FB-787F65C43B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GreenColorPercentage" sheetId="1" r:id="rId1"/>
@@ -63,10 +63,10 @@
     <t>Device Name</t>
   </si>
   <si>
-    <t>NGC-1854</t>
-  </si>
-  <si>
     <t>430LPBSB LP</t>
+  </si>
+  <si>
+    <t>NGC-1854/T772 OR TC-65368 </t>
   </si>
 </sst>
 </file>
@@ -150,13 +150,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -492,7 +491,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,61 +507,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
@@ -574,10 +573,10 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
         <v>10</v>
       </c>
     </row>
@@ -596,7 +595,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,72 +606,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>23</v>
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +689,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,72 +701,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>43</v>
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -785,7 +784,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,72 +795,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="9"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="8">
-        <v>45</v>
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
